--- a/Recycling/Met_rec/metrec_Max_hist_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Max_hist_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>59078.62275518186</v>
+        <v>59078.62275518187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>211682.5044181576</v>
+        <v>211682.5044181577</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>725988.5786455828</v>
+        <v>725988.578645583</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1859543.682973827</v>
+        <v>1859543.682973828</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>818774.3147223983</v>
+        <v>818774.3147223982</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>791405.3239931304</v>
+        <v>791405.3239931302</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>932849.6529590311</v>
+        <v>932849.6529590308</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_hist_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Max_hist_Avg.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.4724601505287397</v>
+        <v>0.4724601505287396</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5501401.852526453</v>
+        <v>5501401.852526454</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5.850388579693973</v>
+        <v>5.850388579693974</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6.884763890852647</v>
+        <v>6.884763890852649</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>27.3220297298861</v>
+        <v>27.32202972988609</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>13.57470378410824</v>
+        <v>13.57470378410825</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>46.64899273861412</v>
+        <v>46.6489927386141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>78.95110005293489</v>
+        <v>78.95110005293486</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>68.83657384123028</v>
+        <v>68.83657384123026</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>796.0963659103944</v>
+        <v>796.0963659103945</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5028,7 +5028,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>371.3449167379645</v>
+        <v>371.3449167379646</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5640,7 +5640,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>837.1358697920402</v>
+        <v>837.1358697920404</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>9547.106452425403</v>
+        <v>9547.106452425402</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5844,7 +5844,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1269.255204041254</v>
+        <v>1269.255204041255</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>8062.865026428386</v>
+        <v>8062.865026428388</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>63632.4341101667</v>
+        <v>63632.43411016672</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9108,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>201875.8619481575</v>
+        <v>201875.8619481576</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>188789.6111680946</v>
+        <v>188789.6111680945</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10420,7 +10420,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>455620.6236858947</v>
+        <v>455620.6236858948</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10464,7 +10464,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>155911.6721733684</v>
+        <v>155911.6721733683</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10580,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>262064.1409867022</v>
+        <v>262064.1409867021</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10740,7 +10740,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>669339.213683437</v>
+        <v>669339.2136834371</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10944,7 +10944,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>806740.8813349558</v>
+        <v>806740.8813349556</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>393067.5027207576</v>
+        <v>393067.5027207577</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11804,7 +11804,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>941339.5895595532</v>
+        <v>941339.589559553</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11892,7 +11892,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>756601.8337896508</v>
+        <v>756601.8337896509</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2424350.196644087</v>
+        <v>2424350.196644086</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3832249.861301857</v>
+        <v>3832249.861301856</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1681464.112000665</v>
+        <v>1681464.112000666</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16452,7 +16452,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1505721.0205207</v>
+        <v>1505721.020520701</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16584,7 +16584,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>579507.5876364737</v>
+        <v>579507.5876364736</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16904,7 +16904,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>837674.4373829677</v>
+        <v>837674.4373829676</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16992,7 +16992,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>552312.4505699847</v>
+        <v>552312.4505699849</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17312,7 +17312,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>792977.5295604329</v>
+        <v>792977.5295604331</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3642127.030468763</v>
+        <v>3642127.030468764</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18172,7 +18172,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3744532.024360589</v>
+        <v>3744532.024360588</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18580,7 +18580,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3929187.46316414</v>
+        <v>3929187.463164139</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18696,7 +18696,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1458167.125156616</v>
+        <v>1458167.125156617</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18784,7 +18784,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4032361.975779258</v>
+        <v>4032361.975779259</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>857626.957421469</v>
+        <v>857626.9574214693</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19964,7 +19964,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1181483.641227528</v>
+        <v>1181483.641227529</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20460,7 +20460,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>777888.3712975093</v>
+        <v>777888.3712975091</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>996027.7431530247</v>
+        <v>996027.7431530248</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21072,7 +21072,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>671745.1048659042</v>
+        <v>671745.1048659043</v>
       </c>
     </row>
     <row r="17" spans="1:4">
